--- a/biology/Médecine/René_Gauducheau/René_Gauducheau.xlsx
+++ b/biology/Médecine/René_Gauducheau/René_Gauducheau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Gauducheau</t>
+          <t>René_Gauducheau</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">René Gauducheau est un médecin radiologiste français né le 25 décembre 1881 à Nantes et mort le 22 août 1968 à Nantes.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Gauducheau</t>
+          <t>René_Gauducheau</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">René Maurice Auguste Gauducheau est le fils d'Auguste Étienne Gauducheau, docteur en médecine, et de Berthe Isaure Gabrielle Jeanne Angeard. Il épouse  Yvonne Louise Jeanne Allard.
 Il suit ses études de médecine à Nantes puis à Paris, soutenant sa thèse en 1912.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Gauducheau</t>
+          <t>René_Gauducheau</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La Radiothérapie des méningites séreuses (1933)
 Ch. Mirallié. (1866-1932.) (1933)
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Gauducheau</t>
+          <t>René_Gauducheau</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Officier de la Légion d'honneur
 Ordre royal de Saint-Sava</t>
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Gauducheau</t>
+          <t>René_Gauducheau</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,7 +631,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Centre René-Gauducheau, devenu Institut de cancérologie de l'Ouest (ICO) - site René Gauducheau, à Saint-Herblain</t>
         </is>
